--- a/PUE_LSTM_v1.0/total_loss.xlsx
+++ b/PUE_LSTM_v1.0/total_loss.xlsx
@@ -348,1002 +348,1002 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.4918864369392395</v>
+        <v>0.3510738611221313</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.1559698432683945</v>
+        <v>0.1784317642450333</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.07020296156406403</v>
+        <v>0.04134468361735344</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.1066424697637558</v>
+        <v>0.04464953765273094</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.04798971116542816</v>
+        <v>0.043677669018507</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.03238384053111076</v>
+        <v>0.0480271503329277</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.06753925979137421</v>
+        <v>0.04325050488114357</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.0511217787861824</v>
+        <v>0.06583902984857559</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.06463903188705444</v>
+        <v>0.074424147605896</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.03177915886044502</v>
+        <v>0.04005660116672516</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.04114551469683647</v>
+        <v>0.07429324090480804</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.0486471876502037</v>
+        <v>0.04179795831441879</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.02515451796352863</v>
+        <v>0.03843395411968231</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.04113097488880157</v>
+        <v>0.08127474784851074</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.04677231982350349</v>
+        <v>0.04276014864444733</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.03913845121860504</v>
+        <v>0.03278747200965881</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.03114581480622292</v>
+        <v>0.05596350133419037</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.02932846359908581</v>
+        <v>0.03397155553102493</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.04169965535402298</v>
+        <v>0.03741592541337013</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.02786730416119099</v>
+        <v>0.03537347912788391</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.02887463383376598</v>
+        <v>0.03607361391186714</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.02491843700408936</v>
+        <v>0.02053222618997097</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.02946934662759304</v>
+        <v>0.02552703768014908</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.03150288388133049</v>
+        <v>0.05094151943922043</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.04372604936361313</v>
+        <v>0.03913740813732147</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.03051732853055</v>
+        <v>0.02192410454154015</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.02552911266684532</v>
+        <v>0.03892964869737625</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.02862100675702095</v>
+        <v>0.03419224172830582</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.0328732393682003</v>
+        <v>0.03724545985460281</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.02193435281515121</v>
+        <v>0.02670222520828247</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.03595038503408432</v>
+        <v>0.01901466771960258</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.02322982251644135</v>
+        <v>0.04567526280879974</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.02901019155979156</v>
+        <v>0.0202301386743784</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.02084936760365963</v>
+        <v>0.03854905813932419</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.02609708905220032</v>
+        <v>0.04435084015130997</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.0293399766087532</v>
+        <v>0.03497454524040222</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.01781543344259262</v>
+        <v>0.05136804282665253</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.03700181469321251</v>
+        <v>0.02044989913702011</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.02510768920183182</v>
+        <v>0.02504308149218559</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.02084725350141525</v>
+        <v>0.02811026573181152</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.02753149345517159</v>
+        <v>0.04673202335834503</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.0410674512386322</v>
+        <v>0.03048987500369549</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.02173480018973351</v>
+        <v>0.0293506383895874</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.03104113228619099</v>
+        <v>0.03047510609030724</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.01382205449044704</v>
+        <v>0.03003833442926407</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.03631922602653503</v>
+        <v>0.01490292605012655</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.02059503272175789</v>
+        <v>0.02757458761334419</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.01767825335264206</v>
+        <v>0.01894749328494072</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.02205817960202694</v>
+        <v>0.02603551745414734</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.01516601536422968</v>
+        <v>0.02303390204906464</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.0389348529279232</v>
+        <v>0.01852020435035229</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.01751954853534698</v>
+        <v>0.02376165613532066</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.02732772752642632</v>
+        <v>0.02813215367496014</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.02099757082760334</v>
+        <v>0.02281961962580681</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.02339285425841808</v>
+        <v>0.03030907921493053</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.03539671748876572</v>
+        <v>0.02801944315433502</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.02326837182044983</v>
+        <v>0.02186494879424572</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.03218278661370277</v>
+        <v>0.02871282212436199</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.0232170894742012</v>
+        <v>0.03623693063855171</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.02113478630781174</v>
+        <v>0.02420511841773987</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.02111857384443283</v>
+        <v>0.01649146527051926</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.02177839167416096</v>
+        <v>0.01754062995314598</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.02467132732272148</v>
+        <v>0.01292738970369101</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.02778076007962227</v>
+        <v>0.02662243321537971</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.0278948862105608</v>
+        <v>0.01475130207836628</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.01852762885391712</v>
+        <v>0.02826954424381256</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.01702842488884926</v>
+        <v>0.02317105792462826</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.01408132910728455</v>
+        <v>0.02007649280130863</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.02214973792433739</v>
+        <v>0.02269063517451286</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.01790382713079453</v>
+        <v>0.0321931466460228</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.02554604411125183</v>
+        <v>0.02861940115690231</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.01226072665303946</v>
+        <v>0.02036046236753464</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.01295968145132065</v>
+        <v>0.01651035435497761</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.01899838075041771</v>
+        <v>0.04231830686330795</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.01801065355539322</v>
+        <v>0.02199783176183701</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.01730858162045479</v>
+        <v>0.02294151484966278</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.02473813109099865</v>
+        <v>0.01158945076167583</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.02508281916379929</v>
+        <v>0.01882395893335342</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.01996927335858345</v>
+        <v>0.01260426547378302</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.02789261564612389</v>
+        <v>0.03348365798592567</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.01362082920968533</v>
+        <v>0.01648215018212795</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.01400156784802675</v>
+        <v>0.01871885359287262</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.01509724278002977</v>
+        <v>0.01803343929350376</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.008883834816515446</v>
+        <v>0.01440496556460857</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.01604407280683517</v>
+        <v>0.02018608525395393</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.02495255321264267</v>
+        <v>0.01152033731341362</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.02464821934700012</v>
+        <v>0.01596488989889622</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.01915162056684494</v>
+        <v>0.02152515016496181</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.016207505017519</v>
+        <v>0.02687124162912369</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.02210691571235657</v>
+        <v>0.0209342036396265</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.02086476050317287</v>
+        <v>0.02078615501523018</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.02600469812750816</v>
+        <v>0.02115230448544025</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.02333007007837296</v>
+        <v>0.01998051628470421</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.01383891329169273</v>
+        <v>0.03235086798667908</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.01553421001881361</v>
+        <v>0.01474082283675671</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.01624775864183903</v>
+        <v>0.01896939799189568</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.01561350747942924</v>
+        <v>0.01316441036760807</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.008958205580711365</v>
+        <v>0.01994547061622143</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.01905015110969543</v>
+        <v>0.01862552762031555</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.01605100743472576</v>
+        <v>0.02167034521698952</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.02069174125790596</v>
+        <v>0.01767114549875259</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.006164523772895336</v>
+        <v>0.01547553949058056</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.01870593428611755</v>
+        <v>0.01383791491389275</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.01980752870440483</v>
+        <v>0.02053889818489552</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.01464263815432787</v>
+        <v>0.01626197248697281</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.01284685917198658</v>
+        <v>0.02174017950892448</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.007527445908635855</v>
+        <v>0.014135274104774</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.01298968680202961</v>
+        <v>0.01931294612586498</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.01727249287068844</v>
+        <v>0.01734114438295364</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.01180354692041874</v>
+        <v>0.01427191123366356</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.0210372693836689</v>
+        <v>0.01170685794204473</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.01032783184200525</v>
+        <v>0.01295931823551655</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.01503224857151508</v>
+        <v>0.01171550713479519</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.01425322704017162</v>
+        <v>0.01736476644873619</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.01533540710806847</v>
+        <v>0.009846845641732216</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.01680632494390011</v>
+        <v>0.0057410579174757</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.009606525301933289</v>
+        <v>0.01417117472738028</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.01510873716324568</v>
+        <v>0.01401645131409168</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.01757859624922276</v>
+        <v>0.008925170637667179</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.01091758627444506</v>
+        <v>0.01810625195503235</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.01418344490230083</v>
+        <v>0.01147028245031834</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.01649034395813942</v>
+        <v>0.01204753667116165</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.01405109465122223</v>
+        <v>0.01421374175697565</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.01430127583444118</v>
+        <v>0.02821505442261696</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.01702537201344967</v>
+        <v>0.01268179900944233</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.01808242499828339</v>
+        <v>0.01135453768074512</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.01368419080972672</v>
+        <v>0.01339789852499962</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.01288921199738979</v>
+        <v>0.01292577851563692</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.01507648825645447</v>
+        <v>0.00860231276601553</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.0164053663611412</v>
+        <v>0.01372200902551413</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.01111873611807823</v>
+        <v>0.01440013386309147</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.01671915873885155</v>
+        <v>0.01489303447306156</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.01950498484075069</v>
+        <v>0.01339785847812891</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.01307038404047489</v>
+        <v>0.01543635129928589</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.006601534318178892</v>
+        <v>0.01608369499444962</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.01150541752576828</v>
+        <v>0.02318131737411022</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.01189668662846088</v>
+        <v>0.01277890522032976</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.009263746440410614</v>
+        <v>0.01556917652487755</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.01579458639025688</v>
+        <v>0.01548434793949127</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.01193346362560987</v>
+        <v>0.009497081860899925</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.01172188855707645</v>
+        <v>0.01690002158284187</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>0.01133688073605299</v>
+        <v>0.01074951700866222</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>0.01587257906794548</v>
+        <v>0.01029640715569258</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>0.009562224149703979</v>
+        <v>0.01427066791802645</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>0.01030334830284119</v>
+        <v>0.009613177739083767</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>0.008145065046846867</v>
+        <v>0.01362628862261772</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>0.01139969937503338</v>
+        <v>0.007755137514322996</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>0.01058273483067751</v>
+        <v>0.0114670917391777</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>0.0117635689675808</v>
+        <v>0.01763509772717953</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>0.01386505179107189</v>
+        <v>0.01110251247882843</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>0.01214533392339945</v>
+        <v>0.01110479049384594</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>0.01429351046681404</v>
+        <v>0.0139033105224371</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>0.007408150471746922</v>
+        <v>0.007687626406550407</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>0.0110682500526309</v>
+        <v>0.00966344028711319</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>0.01190428622066975</v>
+        <v>0.01352705620229244</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>0.009891226887702942</v>
+        <v>0.01432190462946892</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>0.01406334154307842</v>
+        <v>0.01461213268339634</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>0.007346018683165312</v>
+        <v>0.01125746034085751</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>0.01644883677363396</v>
+        <v>0.0150539530441165</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>0.01113992556929588</v>
+        <v>0.01364990789443254</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>0.009807984344661236</v>
+        <v>0.01921527087688446</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>0.0150018036365509</v>
+        <v>0.00891462154686451</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>0.01127535849809647</v>
+        <v>0.01237201783806086</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>0.01268865913152695</v>
+        <v>0.009888537228107452</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>0.009986326098442078</v>
+        <v>0.01279205083847046</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>0.011943144723773</v>
+        <v>0.01482280902564526</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>0.007644247263669968</v>
+        <v>0.01739842444658279</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>0.006894072517752647</v>
+        <v>0.01641535386443138</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>0.01033391430974007</v>
+        <v>0.01350117847323418</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>0.01017888449132442</v>
+        <v>0.01282765157520771</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>0.006301136687397957</v>
+        <v>0.011687146499753</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>0.01212862692773342</v>
+        <v>0.00956224650144577</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>0.0127763245254755</v>
+        <v>0.0114655327051878</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>0.01248502545058727</v>
+        <v>0.01055510435253382</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>0.01674200408160686</v>
+        <v>0.01862043142318726</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>0.008904805406928062</v>
+        <v>0.01301187928766012</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>0.005577823147177696</v>
+        <v>0.0109435236081481</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>0.006022782064974308</v>
+        <v>0.01390782184898853</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>0.01206006482243538</v>
+        <v>0.007305773440748453</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>0.009976404719054699</v>
+        <v>0.01439524814486504</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>0.008237443864345551</v>
+        <v>0.007885145023465157</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>0.009236875921487808</v>
+        <v>0.01376956328749657</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>0.01571806333959103</v>
+        <v>0.008575321175158024</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>0.00899521354585886</v>
+        <v>0.01441968232393265</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>0.01345153525471687</v>
+        <v>0.009304510429501534</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>0.01125729084014893</v>
+        <v>0.01028509344905615</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>0.01344605907797813</v>
+        <v>0.007632951717823744</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>0.007310157641768456</v>
+        <v>0.01488864421844482</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>0.007429148536175489</v>
+        <v>0.008898946456611156</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>0.004664238076657057</v>
+        <v>0.01961664110422134</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>0.007049678824841976</v>
+        <v>0.01610657945275307</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>0.008795898407697678</v>
+        <v>0.01577402651309967</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>0.008246610872447491</v>
+        <v>0.006775534711778164</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>0.01231112703680992</v>
+        <v>0.008526301942765713</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>0.01092026103287935</v>
+        <v>0.01359710283577442</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>0.009307394735515118</v>
+        <v>0.01232218369841576</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>0.008909943513572216</v>
+        <v>0.01158686354756355</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>0.01020560041069984</v>
+        <v>0.006527833174914122</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>0.00928867794573307</v>
+        <v>0.01117041241377592</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>0.007511568255722523</v>
+        <v>0.01417531631886959</v>
       </c>
     </row>
   </sheetData>
